--- a/03 Data/Simple Dataset/evaluations/resultsAll.xlsx
+++ b/03 Data/Simple Dataset/evaluations/resultsAll.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mads\Documents\GitHub\BachelorProject\03 Data\Simple Dataset\evaluations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{6C22E0D4-F1B4-43E6-91C7-21A260B3ADE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{59FE0396-28D6-4F21-9B16-436C6B460337}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276"/>
   </bookViews>
@@ -2364,7 +2364,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="111" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2572,7 +2572,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
